--- a/tables/table_Staphylococcus.xlsx
+++ b/tables/table_Staphylococcus.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>**神戸大学** &lt;br&gt; [市販ミンチ肉 における黄色ブドウ球菌汚染調査と分離株の性状](https://www.jstage.jst.go.jp/article/jsfm1994/23/4/23_4_217/_pdf/-char/ja)</t>
+          <t>**神戸大学** &lt;br&gt; [市販ミンチ肉における黄色ブドウ球菌汚染調査と分離株の性状](https://www.jstage.jst.go.jp/article/jsfm1994/23/4/23_4_217/_pdf/-char/ja)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/tables/table_Staphylococcus.xlsx
+++ b/tables/table_Staphylococcus.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>**神戸大学** &lt;br&gt; [市販ミンチ肉における黄色ブドウ球菌汚染調査と分離株の性状](https://www.jstage.jst.go.jp/article/jsfm1994/23/4/23_4_217/_pdf/-char/ja)</t>
+          <t>**神戸大学** &lt;br&gt; [市販ミンチ肉における黄色ブドウ球菌汚染調査と分離株の性状](https://www.jstage.jst.go.jp/article/jsfm1994/23/4/23_4_217/_pdf/-char/ja) &lt;br&gt; （日本食品微生物学会雑誌, 23 (4), 217-222, 2006）</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/tables/table_Staphylococcus.xlsx
+++ b/tables/table_Staphylococcus.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>

--- a/tables/table_Staphylococcus.xlsx
+++ b/tables/table_Staphylococcus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,6 +467,23 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2000-2002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>**東京都健康安全研究センター** &lt;br&gt; [市販生鮮青果物の食品細菌学的調査](https://www.tmiph.metro.tokyo.lg.jp/files/archive/issue/kenkyunenpo/nenpou55/55-21.pdf) &lt;br&gt;（東京健康安全研究センター年報, 55, 2004）</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>済</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tables/table_Staphylococcus.xlsx
+++ b/tables/table_Staphylococcus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,34 +453,51 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2022-2023</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>**神戸大学** &lt;br&gt; [市販ミンチ肉における黄色ブドウ球菌汚染調査と分離株の性状](https://www.jstage.jst.go.jp/article/jsfm1994/23/4/23_4_217/_pdf/-char/ja) &lt;br&gt; （日本食品微生物学会雑誌, 23 (4), 217-222, 2006）</t>
+          <t>**国立医薬品食品衛生研究所** &lt;br&gt; [Contamination of Japanese Retail Foods With Enterotoxigenic _Clostridium Perfringens_ Spores](https://www.sciencedirect.com/science/article/pii/S0362028X24002138) &lt;br&gt; (Journal of Food Protection., 2025; 88: 100429)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>済</t>
+          <t>未登録</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2000-2002</t>
+          <t>2019-2020</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; [市販生鮮青果物の食品細菌学的調査](https://www.tmiph.metro.tokyo.lg.jp/files/archive/issue/kenkyunenpo/nenpou55/55-21.pdf) &lt;br&gt;（東京健康安全研究センター年報, 55, 2004）</t>
+          <t>**広島県立大学** &lt;br&gt; [Prevalence of cpe-positive _Clostridium perfringens_ in surface-attached soil of commercially available potatoes and its significance as a potential source of food poisoning](https://www.sciencedirect.com/science/article/pii/S1075996422001809) &lt;br&gt; (Anaerobe volume 79, 2023, 102687)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>済</t>
+          <t>未登録</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>**和歌山県立医科大学** &lt;br&gt; [Prevalence and Characterization of Enterotoxin Gene-Carrying _Clostridium perfringens_ Isolates from Retail Meat Products in Japan](https://journals.asm.org/doi/10.1128/aem.00783-08) &lt;br&gt; (Applied and Environmental Microbiology 74, 5366-5372)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>未登録</t>
         </is>
       </c>
     </row>

--- a/tables/table_Staphylococcus.xlsx
+++ b/tables/table_Staphylococcus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,51 +453,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-2023</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>**国立医薬品食品衛生研究所** &lt;br&gt; [Contamination of Japanese Retail Foods With Enterotoxigenic _Clostridium Perfringens_ Spores](https://www.sciencedirect.com/science/article/pii/S0362028X24002138) &lt;br&gt; (Journal of Food Protection., 2025; 88: 100429)</t>
+          <t>**神戸大学** &lt;br&gt; [市販ミンチ肉における黄色ブドウ球菌汚染調査と分離株の性状](https://www.jstage.jst.go.jp/article/jsfm1994/23/4/23_4_217/_pdf/-char/ja) &lt;br&gt; （日本食品微生物学会雑誌, 23 (4), 217-222, 2006）</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2000-2002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>**広島県立大学** &lt;br&gt; [Prevalence of cpe-positive _Clostridium perfringens_ in surface-attached soil of commercially available potatoes and its significance as a potential source of food poisoning](https://www.sciencedirect.com/science/article/pii/S1075996422001809) &lt;br&gt; (Anaerobe volume 79, 2023, 102687)</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; [市販生鮮青果物の食品細菌学的調査](https://www.tmiph.metro.tokyo.lg.jp/files/archive/issue/kenkyunenpo/nenpou55/55-21.pdf) &lt;br&gt;（東京健康安全研究センター年報, 55, 2004）</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>未登録</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>**和歌山県立医科大学** &lt;br&gt; [Prevalence and Characterization of Enterotoxin Gene-Carrying _Clostridium perfringens_ Isolates from Retail Meat Products in Japan](https://journals.asm.org/doi/10.1128/aem.00783-08) &lt;br&gt; (Applied and Environmental Microbiology 74, 5366-5372)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>
